--- a/data/trans_orig/POLIPATOLOGIA_Lim_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_2-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>360882</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332763</v>
+        <v>329467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>391467</v>
+        <v>393943</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3702706929400792</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3414199189680838</v>
+        <v>0.3380387283429406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4016519715337361</v>
+        <v>0.4041917047315383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>644</v>
@@ -764,19 +764,19 @@
         <v>686472</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>648831</v>
+        <v>646320</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>724519</v>
+        <v>720773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5131361769012074</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4849994097050579</v>
+        <v>0.48312258562786</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5415758165726543</v>
+        <v>0.5387757249816778</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>972</v>
@@ -785,19 +785,19 @@
         <v>1047354</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>997379</v>
+        <v>997542</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1101027</v>
+        <v>1095761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4529214807070829</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4313103706128819</v>
+        <v>0.4313807946694229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4761319591417347</v>
+        <v>0.4738548562935619</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>613761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>583176</v>
+        <v>580700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>641880</v>
+        <v>645176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6297293070599208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5983480284662637</v>
+        <v>0.5958082952684617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6585800810319161</v>
+        <v>0.6619612716570594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>603</v>
@@ -835,19 +835,19 @@
         <v>651325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>613278</v>
+        <v>617024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>688966</v>
+        <v>691477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4868638230987927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4584241834273458</v>
+        <v>0.4612242750183222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5150005902949422</v>
+        <v>0.51687741437214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1183</v>
@@ -856,19 +856,19 @@
         <v>1265086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1211413</v>
+        <v>1216679</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315061</v>
+        <v>1314898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5470785192929172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5238680408582651</v>
+        <v>0.5261451437064382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5686896293871182</v>
+        <v>0.5686192053305773</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>190082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>164424</v>
+        <v>165048</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216753</v>
+        <v>220408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09678521516653901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08372092544757466</v>
+        <v>0.08403851360626832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1103655309733216</v>
+        <v>0.1122264541715944</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>272</v>
@@ -981,19 +981,19 @@
         <v>300819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267663</v>
+        <v>267590</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>335754</v>
+        <v>333741</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1711332855292338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1522715757278924</v>
+        <v>0.1522295436037303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1910075981647388</v>
+        <v>0.1898623091413727</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>447</v>
@@ -1002,19 +1002,19 @@
         <v>490901</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>448606</v>
+        <v>451538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>535735</v>
+        <v>538804</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.131900116046046</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1205359745098281</v>
+        <v>0.1213238719152482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1439465678043368</v>
+        <v>0.1447711669014593</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1773875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1747204</v>
+        <v>1743549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1799533</v>
+        <v>1798909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.903214784833461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8896344690266783</v>
+        <v>0.8877735458284058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9162790745524254</v>
+        <v>0.9159614863937318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1363</v>
@@ -1052,19 +1052,19 @@
         <v>1456984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1422049</v>
+        <v>1424062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1490140</v>
+        <v>1490213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8288667144707661</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8089924018352611</v>
+        <v>0.8101376908586272</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8477284242721075</v>
+        <v>0.847770456396269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3044</v>
@@ -1073,19 +1073,19 @@
         <v>3230859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3186025</v>
+        <v>3182956</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3273154</v>
+        <v>3270222</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.868099883953954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8560534321956632</v>
+        <v>0.8552288330985406</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8794640254901716</v>
+        <v>0.8786761280847516</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>30916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21681</v>
+        <v>20661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46891</v>
+        <v>44957</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06424940385739007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.045057627806129</v>
+        <v>0.04293865105247156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09745007439165138</v>
+        <v>0.09343137993646768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1198,19 +1198,19 @@
         <v>49154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36951</v>
+        <v>35075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64777</v>
+        <v>64837</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1071762577479655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0805675721070806</v>
+        <v>0.07647667189802719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1412407758473184</v>
+        <v>0.1413718210271811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1219,19 +1219,19 @@
         <v>80070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63893</v>
+        <v>63258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99131</v>
+        <v>100849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08519782618469945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06798495878758749</v>
+        <v>0.06730870861345714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.105479579760937</v>
+        <v>0.1073074611923242</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>450265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>434290</v>
+        <v>436224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>459500</v>
+        <v>460520</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9357505961426099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9025499256083488</v>
+        <v>0.9065686200635321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.954942372193871</v>
+        <v>0.9570613489475285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>368</v>
@@ -1269,19 +1269,19 @@
         <v>409477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>393854</v>
+        <v>393794</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>421680</v>
+        <v>423556</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8928237422520344</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8587592241526816</v>
+        <v>0.8586281789728192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9194324278929193</v>
+        <v>0.9235233281019729</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>780</v>
@@ -1290,19 +1290,19 @@
         <v>859743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>840682</v>
+        <v>838964</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>875920</v>
+        <v>876555</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9148021738153005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.894520420239063</v>
+        <v>0.8926925388076757</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9320150412124122</v>
+        <v>0.9326912913865429</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>581879</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>536791</v>
+        <v>539949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>628165</v>
+        <v>629266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1701510296713409</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.15696643814279</v>
+        <v>0.1578899004052632</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.183685796502623</v>
+        <v>0.1840076045319523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>960</v>
@@ -1415,19 +1415,19 @@
         <v>1036445</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>983724</v>
+        <v>981527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1091445</v>
+        <v>1088525</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2916087670732813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2767756790262</v>
+        <v>0.2761575565358674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3070833185634839</v>
+        <v>0.3062617006421676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1489</v>
@@ -1436,19 +1436,19 @@
         <v>1618324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1546632</v>
+        <v>1552686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1697584</v>
+        <v>1693218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2320506593982214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2217707880736244</v>
+        <v>0.222638782387032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2434157048085464</v>
+        <v>0.2427896317844308</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>2837903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2791617</v>
+        <v>2790516</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2882991</v>
+        <v>2879833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8298489703286591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8163142034973767</v>
+        <v>0.8159923954680479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.84303356185721</v>
+        <v>0.8421100995947369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2334</v>
@@ -1486,19 +1486,19 @@
         <v>2517785</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2462785</v>
+        <v>2465705</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2570506</v>
+        <v>2572703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7083912329267187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6929166814365161</v>
+        <v>0.6937382993578326</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7232243209738</v>
+        <v>0.7238424434641326</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5007</v>
@@ -1507,19 +1507,19 @@
         <v>5355688</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5276428</v>
+        <v>5280794</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5427380</v>
+        <v>5421326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7679493406017787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7565842951914535</v>
+        <v>0.7572103682155692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7782292119263756</v>
+        <v>0.7773612176129679</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>228273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>202276</v>
+        <v>204787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251174</v>
+        <v>254638</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3026105555002535</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2681465006022148</v>
+        <v>0.271475691965217</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.332969384518907</v>
+        <v>0.3375609065931164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>423</v>
@@ -1871,19 +1871,19 @@
         <v>485979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>452782</v>
+        <v>451923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>518010</v>
+        <v>519641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4885880040473409</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4552131204154011</v>
+        <v>0.4543487484229676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5207910188037495</v>
+        <v>0.5224306068045921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>663</v>
@@ -1892,19 +1892,19 @@
         <v>714252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>672865</v>
+        <v>671978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>753872</v>
+        <v>755496</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4083759219797676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.384712304996799</v>
+        <v>0.3842052739333682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4310283961918261</v>
+        <v>0.4319570448792498</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>526074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503173</v>
+        <v>499709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>552071</v>
+        <v>549560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6973894444997465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.667030615481093</v>
+        <v>0.6624390934068836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7318534993977852</v>
+        <v>0.7285243080347832</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>469</v>
@@ -1942,19 +1942,19 @@
         <v>508681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>476650</v>
+        <v>475019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>541878</v>
+        <v>542737</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5114119959526591</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4792089811962505</v>
+        <v>0.4775693931954076</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5447868795845989</v>
+        <v>0.5456512515770324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>991</v>
@@ -1963,19 +1963,19 @@
         <v>1034755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>995135</v>
+        <v>993511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1076142</v>
+        <v>1077029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5916240780202324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5689716038081739</v>
+        <v>0.5680429551207502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.615287695003201</v>
+        <v>0.6157947260666318</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>228268</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>199852</v>
+        <v>199614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>258454</v>
+        <v>256565</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1099353367855859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09624995247380511</v>
+        <v>0.09613529447904635</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1244728393959781</v>
+        <v>0.1235635001550332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>332</v>
@@ -2088,19 +2088,19 @@
         <v>369348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>333703</v>
+        <v>333093</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>406142</v>
+        <v>405867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1857607678105135</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1678331998009996</v>
+        <v>0.1675262962883612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2042660102383785</v>
+        <v>0.2041276576867914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>548</v>
@@ -2109,19 +2109,19 @@
         <v>597616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>555152</v>
+        <v>551271</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>642504</v>
+        <v>641008</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1470264541284769</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1365794011012385</v>
+        <v>0.1356246069823051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1580698808373008</v>
+        <v>0.1577018318731146</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>1848117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1817931</v>
+        <v>1819820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1876533</v>
+        <v>1876771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8900646632144141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8755271606040219</v>
+        <v>0.8764364998449669</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9037500475261951</v>
+        <v>0.9038647055209538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1576</v>
@@ -2159,19 +2159,19 @@
         <v>1618952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1582158</v>
+        <v>1582433</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1654597</v>
+        <v>1655207</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8142392321894865</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7957339897616214</v>
+        <v>0.7958723423132078</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8321668001990004</v>
+        <v>0.8324737037116385</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3312</v>
@@ -2180,19 +2180,19 @@
         <v>3467069</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3422181</v>
+        <v>3423677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3509533</v>
+        <v>3513414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8529735458715231</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8419301191626991</v>
+        <v>0.8422981681268856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8634205988987615</v>
+        <v>0.8643753930176951</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>48899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36051</v>
+        <v>36576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64492</v>
+        <v>65010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08941418772128087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06591984632286484</v>
+        <v>0.06688103494974146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1179262903984371</v>
+        <v>0.1188730919519259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2305,19 +2305,19 @@
         <v>57105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44373</v>
+        <v>43109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74412</v>
+        <v>74625</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1039903410183629</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08080474727593652</v>
+        <v>0.07850200605847918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1355071613980199</v>
+        <v>0.1358945214673692</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -2326,19 +2326,19 @@
         <v>106005</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87093</v>
+        <v>86274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128425</v>
+        <v>128914</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09671725339374251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07946211083277972</v>
+        <v>0.07871522635838889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1171733729195245</v>
+        <v>0.1176196071717839</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>497987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>482394</v>
+        <v>481876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>510835</v>
+        <v>510310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9105858122787192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8820737096015628</v>
+        <v>0.881126908048074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9340801536771351</v>
+        <v>0.9331189650502585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>475</v>
@@ -2376,19 +2376,19 @@
         <v>492035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>474728</v>
+        <v>474515</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>504767</v>
+        <v>506031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8960096589816371</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8644928386019801</v>
+        <v>0.8641054785326308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9191952527240634</v>
+        <v>0.9214979939415208</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>934</v>
@@ -2397,19 +2397,19 @@
         <v>990022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>967602</v>
+        <v>967113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1008934</v>
+        <v>1009753</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9032827466062575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8828266270804755</v>
+        <v>0.882380392828216</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9205378891672203</v>
+        <v>0.9212847736416111</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>505441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>467328</v>
+        <v>464028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>547212</v>
+        <v>546582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1496441498011712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1383603111895158</v>
+        <v>0.1373832536419334</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1620111271958762</v>
+        <v>0.1618247616293267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>806</v>
@@ -2522,19 +2522,19 @@
         <v>912432</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>856238</v>
+        <v>858208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>963617</v>
+        <v>966402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2583257322844049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2424160950896444</v>
+        <v>0.2429738728991148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.27281692145381</v>
+        <v>0.273605595661225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1304</v>
@@ -2543,19 +2543,19 @@
         <v>1417873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1346039</v>
+        <v>1345354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1482870</v>
+        <v>1490014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.20519985437546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.194803791938099</v>
+        <v>0.1947046426791833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2146065132427573</v>
+        <v>0.2156403549418704</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>2872177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2830406</v>
+        <v>2831036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2910290</v>
+        <v>2913590</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8503558501988289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8379888728041239</v>
+        <v>0.8381752383706732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8616396888104845</v>
+        <v>0.862616746358066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2520</v>
@@ -2593,19 +2593,19 @@
         <v>2619668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2568483</v>
+        <v>2565698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2675862</v>
+        <v>2673892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7416742677155951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7271830785461907</v>
+        <v>0.726394404338775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.757583904910356</v>
+        <v>0.7570261271008852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5237</v>
@@ -2614,19 +2614,19 @@
         <v>5491845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5426848</v>
+        <v>5419704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5563679</v>
+        <v>5564364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.79480014562454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7853934867572423</v>
+        <v>0.7843596450581294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.805196208061901</v>
+        <v>0.8052953573208166</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>201389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>181108</v>
+        <v>180548</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223295</v>
+        <v>223818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3481058096724245</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3130497514010366</v>
+        <v>0.3120803131531607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3859703895491082</v>
+        <v>0.386874818376743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>863</v>
@@ -2978,19 +2978,19 @@
         <v>474485</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>451583</v>
+        <v>451632</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>495367</v>
+        <v>497522</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5772062642536416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5493454567960564</v>
+        <v>0.5494057102451251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6026082459997111</v>
+        <v>0.6052301044077038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1134</v>
@@ -2999,19 +2999,19 @@
         <v>675875</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>644175</v>
+        <v>640728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>707870</v>
+        <v>707446</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4825722157817885</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4599390458603882</v>
+        <v>0.4574774693721765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5054170075269649</v>
+        <v>0.5051136950497019</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>377140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355234</v>
+        <v>354711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397421</v>
+        <v>397981</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6518941903275756</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6140296104508918</v>
+        <v>0.613125181623257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6869502485989635</v>
+        <v>0.6879196868468391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>564</v>
@@ -3049,19 +3049,19 @@
         <v>347553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>326671</v>
+        <v>324516</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>370455</v>
+        <v>370406</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4227937357463584</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.397391754000289</v>
+        <v>0.3947698955922964</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4506545432039437</v>
+        <v>0.450594289754875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>984</v>
@@ -3070,19 +3070,19 @@
         <v>724692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>692697</v>
+        <v>693121</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756392</v>
+        <v>759839</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5174277842182115</v>
+        <v>0.5174277842182113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4945829924730352</v>
+        <v>0.4948863049502981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5400609541396119</v>
+        <v>0.5425225306278233</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>348842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>315559</v>
+        <v>317054</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>388611</v>
+        <v>387009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1563918497666816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1414703790643246</v>
+        <v>0.1421406113791148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1742208391374768</v>
+        <v>0.1735024824555765</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>840</v>
@@ -3195,19 +3195,19 @@
         <v>565007</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>531732</v>
+        <v>529183</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>605332</v>
+        <v>605813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2602049984824001</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2448807786710966</v>
+        <v>0.2437070076019248</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2787761795687369</v>
+        <v>0.2789974755181895</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1213</v>
@@ -3216,19 +3216,19 @@
         <v>913850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>854974</v>
+        <v>859958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>961137</v>
+        <v>973200</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2076006594442882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1942257938559621</v>
+        <v>0.1953579080060513</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.218343030111265</v>
+        <v>0.2210833489296677</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>1881724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1841955</v>
+        <v>1843557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1915007</v>
+        <v>1913512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8436081502333184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8257791608625232</v>
+        <v>0.8264975175444237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8585296209356753</v>
+        <v>0.8578593886208852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2081</v>
@@ -3266,19 +3266,19 @@
         <v>1606385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1566060</v>
+        <v>1565579</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1639660</v>
+        <v>1642209</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7397950015176</v>
+        <v>0.7397950015175998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7212238204312632</v>
+        <v>0.7210025244818106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7551192213289033</v>
+        <v>0.7562929923980749</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3700</v>
@@ -3287,19 +3287,19 @@
         <v>3488109</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3440822</v>
+        <v>3428759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3546985</v>
+        <v>3542001</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7923993405557118</v>
+        <v>0.7923993405557117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.781656969888735</v>
+        <v>0.778916651070332</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8057742061440379</v>
+        <v>0.8046420919939485</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>90092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73754</v>
+        <v>74454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108532</v>
+        <v>111822</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1266077993969288</v>
+        <v>0.1266077993969287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1036471283671696</v>
+        <v>0.10463070617485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1525211670101394</v>
+        <v>0.1571444958504968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -3412,19 +3412,19 @@
         <v>167281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>147673</v>
+        <v>148193</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>188674</v>
+        <v>188393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2276317518709354</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2009487106652057</v>
+        <v>0.2016564149117337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2567418548449657</v>
+        <v>0.2563603070394319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>335</v>
@@ -3433,19 +3433,19 @@
         <v>257374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>230940</v>
+        <v>229572</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>284786</v>
+        <v>287641</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1779330943828065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1596583901489103</v>
+        <v>0.158712525532506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1968842605015462</v>
+        <v>0.1988581258716801</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>621495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603055</v>
+        <v>599765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637833</v>
+        <v>637133</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8733922006030712</v>
+        <v>0.873392200603071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8474788329898606</v>
+        <v>0.8428555041495033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8963528716328305</v>
+        <v>0.8953692938251501</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>765</v>
@@ -3483,19 +3483,19 @@
         <v>567596</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>546203</v>
+        <v>546484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>587204</v>
+        <v>586684</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7723682481290645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7432581451550341</v>
+        <v>0.7436396929605683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7990512893347942</v>
+        <v>0.7983435850882663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1350</v>
@@ -3504,19 +3504,19 @@
         <v>1189090</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1161678</v>
+        <v>1158823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1215524</v>
+        <v>1216892</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8220669056171936</v>
+        <v>0.8220669056171935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8031157394984538</v>
+        <v>0.8011418741283198</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8403416098510896</v>
+        <v>0.8412874744674937</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>640324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>590805</v>
+        <v>598246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>689646</v>
+        <v>691469</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1818750376042758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1678098131002535</v>
+        <v>0.1699232047616936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1958840262274119</v>
+        <v>0.1964020248868977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1942</v>
@@ -3629,19 +3629,19 @@
         <v>1206774</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1158567</v>
+        <v>1158443</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1255298</v>
+        <v>1255375</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3236787649437002</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3107488442967679</v>
+        <v>0.3107156695781753</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3366937241873264</v>
+        <v>0.3367145405952683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2682</v>
@@ -3650,19 +3650,19 @@
         <v>1847098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1782979</v>
+        <v>1777478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1917240</v>
+        <v>1914975</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2548076617577287</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.245962379470587</v>
+        <v>0.2452035408745784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2644837984468165</v>
+        <v>0.2641713106933595</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>2880359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2831037</v>
+        <v>2829214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2929878</v>
+        <v>2922437</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8181249623957242</v>
+        <v>0.8181249623957243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8041159737725891</v>
+        <v>0.8035979751131023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8321901868997464</v>
+        <v>0.8300767952383064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3410</v>
@@ -3700,19 +3700,19 @@
         <v>2521533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2473009</v>
+        <v>2472932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2569740</v>
+        <v>2569864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6763212350562997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6633062758126737</v>
+        <v>0.6632854594047316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6892511557032323</v>
+        <v>0.6892843304218248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6034</v>
@@ -3721,19 +3721,19 @@
         <v>5401892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5331750</v>
+        <v>5334015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5466011</v>
+        <v>5471512</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7451923382422713</v>
+        <v>0.7451923382422714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7355162015531833</v>
+        <v>0.7358286893066405</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7540376205294129</v>
+        <v>0.7547964591254217</v>
       </c>
     </row>
     <row r="15">
